--- a/biology/Neurosciences/Jan_Evangelista_Purkinje/Jan_Evangelista_Purkinje.xlsx
+++ b/biology/Neurosciences/Jan_Evangelista_Purkinje/Jan_Evangelista_Purkinje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan (ou Johannes) Evangelista Purkinje (ou Purkyně), né à Libochovice, près de Litoměřice, le 17 décembre 1787, et mort à Prague le 28 juillet 1869, est un anatomiste et neurophysiologiste tchèque. Il apporta aux sciences biomédicales une contribution indéniable.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Bohême occidentale (République tchèque actuelle), il fait des études de médecine à l’Université de Prague, dont il sort diplômé en 1819. Il renonce progressivement à l’exercice de la clinique pour se consacrer à la recherche en neurobiologie, qui n’en était qu'à ses premiers balbutiements. En 1823, il devient professeur en pathologie et en physiologie à Breslau, alors en Prusse, où il fonde en 1839 le tout premier laboratoire de physiologie avant de rejoindre Prague.
 Jan Purkinje était un homme d'une grande érudition : il parlait treize langues et a traduit plusieurs œuvres de Goethe ou de Schiller en langue tchèque.
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jan Purkinje effectue de nombreuses expériences sur les sens qui sont considérées comme des travaux fondateurs de la psychologie expérimentale. Néanmoins, ses recherches les plus connues concernent le système nerveux.
 On lui doit :
@@ -584,7 +600,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Jan Evangelista Purkyně, Commentatio de examine physiologico organi visus et systematis cutanei, Breslau, Presses de l'Université de Breslau, 1823.
 (la) Purkinje, J.E. &amp; Valentin, G. 1835. De phaenomeno generali et fundamentali motus vibratorii continui in membranis cum e&lt;xternis tum internis animalium plurimorum et superiorum et inferiorum ordinum obvii : commentatio physiologica (Sur le phénomène général et fondamental du mouvement vibratoire continu dans les membranes externes et internes de la plupart des animaux des ordres supérieurs et inférieurs : commentaire physiologique). Wratislaviae (Wrocław) : Sumptibus Aug. Schulz et Socii. (Éditeur) (lire en ligne.)</t>
